--- a/xlsx2py/xlsxs/无下划杠不导出.xlsx
+++ b/xlsx2py/xlsxs/无下划杠不导出.xlsx
@@ -5,19 +5,16 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\StarFight\DataTable\xlsx2py\rpgdemo\xlsxs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\StarFight\DataTable\DataProcessor\xlsx2py\xlsxs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="13620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="13620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="@基础数据测试" sheetId="1" r:id="rId1"/>
     <sheet name="@数组数据测试" sheetId="6" r:id="rId2"/>
     <sheet name="代对表=" sheetId="2" r:id="rId3"/>
-    <sheet name="非导出表" sheetId="3" r:id="rId4"/>
-    <sheet name="配表说明" sheetId="4" r:id="rId5"/>
-    <sheet name="安装指导" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>男:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>非导出表不要加 @</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用于配置映射</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,378 +125,6 @@
   </si>
   <si>
     <t>此行仅做注解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:导出表</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 一个excel上会存在多份表， 不一定每张表都是需要导出的， 因此需要这样一个命令标识此表需要导出:</t>
-  </si>
-  <si>
-    <t>例如:"@普通任务表"</t>
-  </si>
-  <si>
-    <t>该表导出为变量名请在代对表中定义</t>
-  </si>
-  <si>
-    <t>导出表的表名需要在代对表中进行代对填写，格式为：</t>
-  </si>
-  <si>
-    <t>表名(不含@):变量名(只能为英文)</t>
-  </si>
-  <si>
-    <t>例如：</t>
-  </si>
-  <si>
-    <t>普通任务表:normalQuest</t>
-  </si>
-  <si>
-    <t>2:在每张需要导出的表上， 第一行是程序用的属性标签的定义， 还包括一些导出规则, 第2行是策划用的真正的表头， 说明此列数据的用途.</t>
-  </si>
-  <si>
-    <t>3:第一行程序定义的表头中格式如下:</t>
-  </si>
-  <si>
-    <t>4:导出规则定义:</t>
-  </si>
-  <si>
-    <t>***********注意请使用英文符号，程序未作中文的处理****************</t>
-  </si>
-  <si>
-    <t>4.1命令符号 "."</t>
-  </si>
-  <si>
-    <t>4.3命令符号 "!"</t>
-  </si>
-  <si>
-    <t>这个请不要是用中文,python无法使用中文变量名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     代对表每个单元格格式如(物理技能 :BASE_SKILL_TYPE_PHYSICS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     表示此列数据导出后是需要从对代表中进行数据替代的, 这样就可以让策划用中文填写配置了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代表此项必须填写， 如检查到没有填写则报错， 并退出导出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     表示该列数据为所在行的主key，现在主key只能是1个,如需多个key请在            config.py配置EXPORT_KEY_NUMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2命令符号 "$"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.4 命令符号 "c"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     表示该列仅客户端使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     表示该列仅服务器端使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 命令符号 "s"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.6 命令符号可以组合使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     name [规则][类型]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     例如：id[!.s] 表示该列作为key，不能为空，只导出到服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      [cs] 同时存在等价于同时不存在，客户端服务器都会导出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在表名前面加：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前缀 "@"表示为服务器和客户端同时导出。 前缀"#"表示仅客户端导出。 前缀"$"表示仅服务器导出。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5: 可导出数据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮点数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">布尔值：只有0、1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（比int更省资源，作为真假标识请使用此类型）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例： 1.3,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例： 1.0,2.0,3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ints</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例 1|2|3|4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bools</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例  0|1|0|0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>floats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector2s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2d位置。使用','分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3d位置。使用','分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3|3.5|6.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adb|你好|haha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例： 1.3,3|3.5,6.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例： 1.0,2.0,3.2|0.8,7.9,3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整数数组，'|'分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布尔数组，'|'分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮点数数组，'|'分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串数组，'|'分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2d位置数组。'|'分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3d位置数组。'|'分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组类型在不同语言中转化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      python中 转化为元组tuple  例如：（1,2,3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      lua中转化为表，例如：{1,2,3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要安装：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，python 3.5 或以上版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2，对应的 pywin32扩展包： https://github.com/mhammond/pywin32/releases</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如 {key1 : value1, key2 : value2 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持int， float ，string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 必须使用''</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持嵌套使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Alice': {'age':12, 'grade':80}, 'Beth':{'age':13,'grade':90} }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>excel的文件名必须加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">'_导出文件名' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 例如： 策划随便起名_SFHelloTable.xlsx, 导出名程序使用必须为英文。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>无</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'_导出文件名'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的excel文件不会处理导出。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eval</t>
-  </si>
-  <si>
-    <t>使用 python eval 进行计算后的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Alice': 'abc', 'Beth': 9102,11: efg'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -748,7 +369,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -783,7 +404,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1204,16 +824,16 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="4"/>
@@ -1226,12 +846,12 @@
     </row>
     <row r="2" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="D2" s="15"/>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.4">
@@ -1239,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>133</v>
+      <c r="D3" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
@@ -1257,13 +877,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4">
         <v>1.2</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>134</v>
+      <c r="D4" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
@@ -1275,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>135</v>
+        <v>25</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -1290,9 +910,9 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="D6" s="14"/>
       <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1327,13 +947,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>136</v>
+      <c r="D7" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
@@ -1369,13 +989,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4">
         <v>1.5</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>135</v>
+      <c r="D8" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
@@ -1422,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
@@ -1452,28 +1072,28 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="13"/>
     </row>
@@ -1482,19 +1102,19 @@
         <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4">
         <v>10000000000</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>122</v>
+        <v>47</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -1503,19 +1123,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>123</v>
+        <v>44</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1524,16 +1144,16 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>123</v>
+        <v>51</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -1542,14 +1162,14 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="4" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -1558,19 +1178,19 @@
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="15">
+        <v>48</v>
+      </c>
+      <c r="E7" s="14">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -1579,16 +1199,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>124</v>
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>16</v>
@@ -1606,7 +1226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1621,10 +1241,10 @@
         <v>17</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.4">
@@ -1637,7 +1257,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -1651,7 +1271,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -1715,404 +1335,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
-  <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="60.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B33" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B34" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F47" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B56" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B58" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>